--- a/PERMANOVA_Results.xlsx
+++ b/PERMANOVA_Results.xlsx
@@ -377,46 +377,63 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>344192.026611023</v>
+        <v>263847.111854282</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0700179896316829</v>
+        <v>0.053673655732416</v>
       </c>
       <c r="D2" t="n">
-        <v>0.66087552939895</v>
+        <v>0.569932906710413</v>
       </c>
       <c r="E2" t="n">
-        <v>0.796</v>
+        <v>0.878</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4571573.59907437</v>
+        <v>80344.9147567408</v>
       </c>
       <c r="C3" t="n">
-        <v>0.929982010368317</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3"/>
+        <v>0.0163443338992669</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.38841651090725</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.233</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B4" t="n">
-        <v>4915765.62568539</v>
+        <v>4571573.59907437</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.929982010368317</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>88</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4915765.62568539</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PERMANOVA_Results.xlsx
+++ b/PERMANOVA_Results.xlsx
@@ -377,63 +377,46 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>263847.111854282</v>
+        <v>344192.026611023</v>
       </c>
       <c r="C2" t="n">
-        <v>0.053673655732416</v>
+        <v>0.0700179896316829</v>
       </c>
       <c r="D2" t="n">
-        <v>0.569932906710413</v>
+        <v>0.66087552939895</v>
       </c>
       <c r="E2" t="n">
-        <v>0.878</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="B3" t="n">
-        <v>80344.9147567408</v>
+        <v>4571573.59907437</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0163443338992669</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.38841651090725</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.233</v>
-      </c>
+        <v>0.929982010368317</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B4" t="n">
-        <v>4571573.59907437</v>
+        <v>4915765.62568539</v>
       </c>
       <c r="C4" t="n">
-        <v>0.929982010368317</v>
+        <v>1</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>88</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4915765.62568539</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
